--- a/ApolloQA/Data/RatingManual/SC/VA00066.Deductible_StatedValueFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/SC/VA00066.Deductible_StatedValueFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00066.Deductible_StatedValueFactors" sheetId="1" r:id="R9b51aa899a76498b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00066.Deductible_StatedValueFactors" sheetId="1" r:id="Rb08fa5423b5c481b"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -799,6 +799,20 @@
         <x:v>$250</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$425,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$450,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0159</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$250</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$450,001</x:v>
       </x:c>
       <x:c t="str">
@@ -1569,6 +1583,20 @@
         <x:v>$500</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$225,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$250,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0195</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$500</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$250,001</x:v>
       </x:c>
       <x:c t="str">
@@ -2339,6 +2367,20 @@
         <x:v>$1,000</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$130,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$140,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$1,000</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$140,001</x:v>
       </x:c>
       <x:c t="str">
@@ -3109,6 +3151,20 @@
         <x:v>$2,500</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$75,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$80,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$2,500</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$80,001</x:v>
       </x:c>
       <x:c t="str">
@@ -3879,6 +3935,20 @@
         <x:v>$5,000</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$35,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$40,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$40,001</x:v>
       </x:c>
       <x:c t="str">
@@ -4639,6 +4709,20 @@
       </x:c>
       <x:c t="str">
         <x:v>$19,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$19,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$20,000</x:v>
       </x:c>
       <x:c t="str">
         <x:v>0.8000</x:v>
